--- a/biology/Botanique/Amasonia_campestris/Amasonia_campestris.xlsx
+++ b/biology/Botanique/Amasonia_campestris/Amasonia_campestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amasonia campestris est une espèce herbacée sud-américaine appartenant à la famille des Lamiaceae (anciennement Verbenaceae). 
-Il est connu en Guyane sous les noms de Crête coque (Créole), Wahitye awihi (Palikur), Crista-de-galo, Mendoca, Japim-caá (Portugais)[3].
+Il est connu en Guyane sous les noms de Crête coque (Créole), Wahitye awihi (Palikur), Crista-de-galo, Mendoca, Japim-caá (Portugais).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amasonia campestris est une herbacée ou un sous-arbrisseau de moins de 1 m de haut, portant des branches pubescentes. Ses feuilles sont alternes spiralées, avec un pétiole canaliculé, pubescent, long de 5-15 mm et un limbe obové, aigu, denté, mesurant 6,5-26 x 1,7-7 cm, pubescent sur les 2 faces. L'inflorescence terminale érigée mesure 7-23 cm de long, et comporte de nombreuses bractées roses à rouges, oblongues-lancéolées, ovales, lancéolées, oblongues ou elliptiques, dentées et mesurant 10-55 x 3-20 mm. La corolle jaune ou blanche, forme un tube pubescent long de 15-25 mm[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amasonia campestris est une herbacée ou un sous-arbrisseau de moins de 1 m de haut, portant des branches pubescentes. Ses feuilles sont alternes spiralées, avec un pétiole canaliculé, pubescent, long de 5-15 mm et un limbe obové, aigu, denté, mesurant 6,5-26 x 1,7-7 cm, pubescent sur les 2 faces. L'inflorescence terminale érigée mesure 7-23 cm de long, et comporte de nombreuses bractées roses à rouges, oblongues-lancéolées, ovales, lancéolées, oblongues ou elliptiques, dentées et mesurant 10-55 x 3-20 mm. La corolle jaune ou blanche, forme un tube pubescent long de 15-25 mm,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Amasonia campestris depuis la Colombie jusqu'au centre sud du Brésil, en passant par Trinidad, le Vénézuela, le Guyana, le Suriname, et la Guyane[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Amasonia campestris depuis la Colombie jusqu'au centre sud du Brésil, en passant par Trinidad, le Vénézuela, le Guyana, le Suriname, et la Guyane.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amasonia campestris pousse depuis le niveau de la mer jusqu'à 50–1 800 m d'altitude, dans les zones perturbées[5], dans les savanes en lisière forestière et en savane sur sol avec apparition de nappe perchée[4] et sur les inselbergs. Il fleurit de Novembre à Avril[3].
-La biologie reproductive chez Amasonia campestris a été étudiée[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amasonia campestris pousse depuis le niveau de la mer jusqu'à 50–1 800 m d'altitude, dans les zones perturbées, dans les savanes en lisière forestière et en savane sur sol avec apparition de nappe perchée et sur les inselbergs. Il fleurit de Novembre à Avril.
+La biologie reproductive chez Amasonia campestris a été étudiée.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amasonia campestris est employée par les Palikur comme stimulant du cœur contre les étourdissements des enfants et des adultes et pour soigner la paralysie faciale. Elle contiendrait quelques alcaloïdes, des flavonoïdes et autres hétérosides non flavoniques[3].
-Amasonia campestris présenterait des propriétés anti-paludéennes[7] reconnues dans les pharmacopées traditionnelles de l'Amapá au Brésil[8]. Ses propriétés hypoglycémiantes[9], génotoxiques et anti-génotoxiques[10] ont aussi été étudiées.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amasonia campestris est employée par les Palikur comme stimulant du cœur contre les étourdissements des enfants et des adultes et pour soigner la paralysie faciale. Elle contiendrait quelques alcaloïdes, des flavonoïdes et autres hétérosides non flavoniques.
+Amasonia campestris présenterait des propriétés anti-paludéennes reconnues dans les pharmacopées traditionnelles de l'Amapá au Brésil. Ses propriétés hypoglycémiantes, génotoxiques et anti-génotoxiques ont aussi été étudiées.
 </t>
         </is>
       </c>
@@ -638,9 +658,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[11] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « TALIGALEA campeſtris. (Tabula 252.) 
 Herba bi vel tri-pedalis. Radix perennis. Caules annui, ſimplices: Folia alterna, petiolata, ovata, acuta, dentata, ſubvilloſa ; infima lata, majorat ſuperiora minora ; floralia parva, ex rubro, &amp; luteo eleganter variegata. Flores axiliares, in ſpicam diſpoſiti, ſolitarii, vel in corymbos tri-floros vel quinque-floros. Corolla lutea. Bacca nigra, ſphærica, glabra. 
 Variat hæc planta foltis latioribus &amp; glabris. 
